--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
@@ -540,10 +540,10 @@
         <v>12.139396</v>
       </c>
       <c r="I2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
         <v>0.2101788047004444</v>
@@ -570,10 +570,10 @@
         <v>1.891609242304</v>
       </c>
       <c r="S2">
-        <v>0.03136877940932412</v>
+        <v>0.01431461609575881</v>
       </c>
       <c r="T2">
-        <v>0.03136877940932412</v>
+        <v>0.01431461609575881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>12.139396</v>
       </c>
       <c r="I3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>5.33712726487511</v>
+        <v>7.369245969413777</v>
       </c>
       <c r="R3">
-        <v>48.034145383876</v>
+        <v>66.323213724724</v>
       </c>
       <c r="S3">
-        <v>0.7965559043404473</v>
+        <v>0.5018961218174307</v>
       </c>
       <c r="T3">
-        <v>0.7965559043404473</v>
+        <v>0.5018961218174307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H4">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I4">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J4">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
-        <v>0.02937853754666667</v>
+        <v>0.008102120821333332</v>
       </c>
       <c r="R4">
-        <v>0.26440683792</v>
+        <v>0.072919087392</v>
       </c>
       <c r="S4">
-        <v>0.004384689812007407</v>
+        <v>0.0005518099186268496</v>
       </c>
       <c r="T4">
-        <v>0.004384689812007406</v>
+        <v>0.0005518099186268496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H5">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I5">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J5">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>0.7460171541366667</v>
+        <v>0.2840748918113333</v>
       </c>
       <c r="R5">
-        <v>6.714154387230001</v>
+        <v>2.556674026302</v>
       </c>
       <c r="S5">
-        <v>0.111341614950365</v>
+        <v>0.01934744573563967</v>
       </c>
       <c r="T5">
-        <v>0.111341614950365</v>
+        <v>0.01934744573563967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2754046666666667</v>
+        <v>3.636334333333334</v>
       </c>
       <c r="H6">
-        <v>0.826214</v>
+        <v>10.909003</v>
       </c>
       <c r="I6">
-        <v>0.05634901148785605</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="J6">
-        <v>0.05634901148785604</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.155824</v>
       </c>
       <c r="O6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q6">
-        <v>0.01430488559288889</v>
+        <v>0.1888760537191111</v>
       </c>
       <c r="R6">
-        <v>0.128743970336</v>
+        <v>1.699884483472</v>
       </c>
       <c r="S6">
-        <v>0.002134976461011349</v>
+        <v>0.01286375285331175</v>
       </c>
       <c r="T6">
-        <v>0.002134976461011349</v>
+        <v>0.01286375285331175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2754046666666667</v>
+        <v>3.636334333333334</v>
       </c>
       <c r="H7">
-        <v>0.826214</v>
+        <v>10.909003</v>
       </c>
       <c r="I7">
-        <v>0.05634901148785605</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="J7">
-        <v>0.05634901148785604</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N7">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O7">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P7">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q7">
-        <v>0.3632478309482222</v>
+        <v>6.622333301267445</v>
       </c>
       <c r="R7">
-        <v>3.269230478534</v>
+        <v>59.600999711407</v>
       </c>
       <c r="S7">
-        <v>0.0542140350268447</v>
+        <v>0.4510262535792323</v>
       </c>
       <c r="T7">
-        <v>0.0542140350268447</v>
+        <v>0.4510262535792323</v>
       </c>
     </row>
   </sheetData>
